--- a/Отчёт/Second - second version.xlsx
+++ b/Отчёт/Second - second version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A80C085-B275-45C9-8661-4C28241DF672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B57989-E0AB-4C69-87A6-9AA99AC5A39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20208,7 +20208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>

--- a/Отчёт/Second - second version.xlsx
+++ b/Отчёт/Second - second version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Construction and analysis of algorithms\SortAlgorithms\Отчёт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B57989-E0AB-4C69-87A6-9AA99AC5A39C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB1DF9-A848-470F-AE8F-DA56AB5D3AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>From 0 to 5</t>
   </si>
   <si>
-    <t>From 1 to 4100</t>
-  </si>
-  <si>
     <t>Almost Sorted</t>
   </si>
   <si>
@@ -77,6 +74,9 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>From 0 to 4000</t>
   </si>
 </sst>
 </file>
@@ -4668,7 +4668,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>From 1 to 4100</a:t>
+              <a:t>From 0 to 4000</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4709,305 +4709,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Second!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Second!$B$43:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Second!$B$43:$B$83</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42FB-4CFC-94B8-0ABAD81F3825}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$C$1</c:f>
@@ -5304,7 +5007,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$D$1</c:f>
@@ -5601,7 +5304,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$E$1</c:f>
@@ -5898,7 +5601,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$F$1</c:f>
@@ -6195,7 +5898,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$G$1</c:f>
@@ -6492,7 +6195,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$H$1</c:f>
@@ -6791,7 +6494,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$I$1</c:f>
@@ -7090,7 +6793,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$J$1</c:f>
@@ -7389,7 +7092,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$K$1</c:f>
@@ -7688,7 +7391,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$L$1</c:f>
@@ -7987,7 +7690,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$M$1</c:f>
@@ -8286,7 +7989,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$N$1</c:f>
@@ -9009,305 +8712,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Second!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Second!$B$84:$B$124</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Second!$B$84:$B$124</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E19-4EC3-BC1D-56F2F3632756}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$C$1</c:f>
@@ -9604,7 +9010,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$D$1</c:f>
@@ -9901,7 +9307,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$E$1</c:f>
@@ -10198,7 +9604,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$F$1</c:f>
@@ -10495,7 +9901,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$G$1</c:f>
@@ -10792,7 +10198,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$H$1</c:f>
@@ -11091,7 +10497,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$I$1</c:f>
@@ -11390,7 +10796,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$J$1</c:f>
@@ -11689,7 +11095,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$K$1</c:f>
@@ -11988,7 +11394,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$L$1</c:f>
@@ -12287,7 +11693,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$M$1</c:f>
@@ -12586,7 +11992,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$N$1</c:f>
@@ -13309,305 +12715,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Second!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>size</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Second!$B$125:$B$165</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Second!$B$125:$B$165</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1CFB-41F8-81B7-0645EEE43E87}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$C$1</c:f>
@@ -13904,7 +13013,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$D$1</c:f>
@@ -14201,7 +13310,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$E$1</c:f>
@@ -14498,7 +13607,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$F$1</c:f>
@@ -14795,7 +13904,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$G$1</c:f>
@@ -15092,7 +14201,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$H$1</c:f>
@@ -15391,7 +14500,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$I$1</c:f>
@@ -15690,7 +14799,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$J$1</c:f>
@@ -15989,7 +15098,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$K$1</c:f>
@@ -16288,7 +15397,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$L$1</c:f>
@@ -16587,7 +15696,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$M$1</c:f>
@@ -16886,7 +15995,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>Second!$N$1</c:f>
@@ -20208,8 +19317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="X13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22064,7 +21173,7 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B43">
         <v>100</v>
@@ -22108,7 +21217,7 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -22152,7 +21261,7 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B45">
         <v>300</v>
@@ -22196,7 +21305,7 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B46">
         <v>400</v>
@@ -22240,7 +21349,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B47">
         <v>500</v>
@@ -22284,7 +21393,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B48">
         <v>600</v>
@@ -22328,7 +21437,7 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B49">
         <v>700</v>
@@ -22372,7 +21481,7 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B50">
         <v>800</v>
@@ -22416,7 +21525,7 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B51">
         <v>900</v>
@@ -22460,7 +21569,7 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B52">
         <v>1000</v>
@@ -22504,7 +21613,7 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B53">
         <v>1100</v>
@@ -22548,7 +21657,7 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B54">
         <v>1200</v>
@@ -22592,7 +21701,7 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B55">
         <v>1300</v>
@@ -22636,7 +21745,7 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B56">
         <v>1400</v>
@@ -22678,12 +21787,12 @@
         <v>365</v>
       </c>
       <c r="AN56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B57">
         <v>1500</v>
@@ -22727,7 +21836,7 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B58">
         <v>1600</v>
@@ -22771,7 +21880,7 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B59">
         <v>1700</v>
@@ -22815,7 +21924,7 @@
     </row>
     <row r="60" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B60">
         <v>1800</v>
@@ -22859,7 +21968,7 @@
     </row>
     <row r="61" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B61">
         <v>1900</v>
@@ -22903,7 +22012,7 @@
     </row>
     <row r="62" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B62">
         <v>2000</v>
@@ -22947,7 +22056,7 @@
     </row>
     <row r="63" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>2100</v>
@@ -22991,7 +22100,7 @@
     </row>
     <row r="64" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>2200</v>
@@ -23035,7 +22144,7 @@
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <v>2300</v>
@@ -23079,7 +22188,7 @@
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B66">
         <v>2400</v>
@@ -23123,7 +22232,7 @@
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <v>2500</v>
@@ -23167,7 +22276,7 @@
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B68">
         <v>2600</v>
@@ -23211,7 +22320,7 @@
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B69">
         <v>2700</v>
@@ -23255,7 +22364,7 @@
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B70">
         <v>2800</v>
@@ -23299,7 +22408,7 @@
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B71">
         <v>2900</v>
@@ -23343,7 +22452,7 @@
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B72">
         <v>3000</v>
@@ -23387,7 +22496,7 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B73">
         <v>3100</v>
@@ -23431,7 +22540,7 @@
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B74">
         <v>3200</v>
@@ -23475,7 +22584,7 @@
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B75">
         <v>3300</v>
@@ -23519,7 +22628,7 @@
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B76">
         <v>3400</v>
@@ -23563,7 +22672,7 @@
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B77">
         <v>3500</v>
@@ -23607,7 +22716,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B78">
         <v>3600</v>
@@ -23651,7 +22760,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B79">
         <v>3700</v>
@@ -23695,7 +22804,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B80">
         <v>3800</v>
@@ -23739,7 +22848,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B81">
         <v>3900</v>
@@ -23783,7 +22892,7 @@
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B82">
         <v>4000</v>
@@ -23827,7 +22936,7 @@
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B83">
         <v>4100</v>
@@ -23871,7 +22980,7 @@
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B84">
         <v>100</v>
@@ -23915,7 +23024,7 @@
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B85">
         <v>200</v>
@@ -23959,7 +23068,7 @@
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B86">
         <v>300</v>
@@ -24003,7 +23112,7 @@
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B87">
         <v>400</v>
@@ -24047,7 +23156,7 @@
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B88">
         <v>500</v>
@@ -24091,7 +23200,7 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B89">
         <v>600</v>
@@ -24135,7 +23244,7 @@
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B90">
         <v>700</v>
@@ -24179,7 +23288,7 @@
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B91">
         <v>800</v>
@@ -24223,7 +23332,7 @@
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92">
         <v>900</v>
@@ -24267,7 +23376,7 @@
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B93">
         <v>1000</v>
@@ -24311,7 +23420,7 @@
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B94">
         <v>1100</v>
@@ -24355,7 +23464,7 @@
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95">
         <v>1200</v>
@@ -24399,7 +23508,7 @@
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B96">
         <v>1300</v>
@@ -24443,7 +23552,7 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>1400</v>
@@ -24487,7 +23596,7 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B98">
         <v>1500</v>
@@ -24531,7 +23640,7 @@
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B99">
         <v>1600</v>
@@ -24575,7 +23684,7 @@
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B100">
         <v>1700</v>
@@ -24619,7 +23728,7 @@
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101">
         <v>1800</v>
@@ -24663,7 +23772,7 @@
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B102">
         <v>1900</v>
@@ -24707,7 +23816,7 @@
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B103">
         <v>2000</v>
@@ -24751,7 +23860,7 @@
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B104">
         <v>2100</v>
@@ -24795,7 +23904,7 @@
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B105">
         <v>2200</v>
@@ -24839,7 +23948,7 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B106">
         <v>2300</v>
@@ -24883,7 +23992,7 @@
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B107">
         <v>2400</v>
@@ -24927,7 +24036,7 @@
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B108">
         <v>2500</v>
@@ -24971,7 +24080,7 @@
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B109">
         <v>2600</v>
@@ -25015,7 +24124,7 @@
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B110">
         <v>2700</v>
@@ -25059,7 +24168,7 @@
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B111">
         <v>2800</v>
@@ -25103,7 +24212,7 @@
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112">
         <v>2900</v>
@@ -25147,7 +24256,7 @@
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B113">
         <v>3000</v>
@@ -25191,7 +24300,7 @@
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B114">
         <v>3100</v>
@@ -25235,7 +24344,7 @@
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B115">
         <v>3200</v>
@@ -25279,7 +24388,7 @@
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B116">
         <v>3300</v>
@@ -25323,7 +24432,7 @@
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B117">
         <v>3400</v>
@@ -25367,7 +24476,7 @@
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B118">
         <v>3500</v>
@@ -25411,7 +24520,7 @@
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B119">
         <v>3600</v>
@@ -25455,7 +24564,7 @@
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B120">
         <v>3700</v>
@@ -25499,7 +24608,7 @@
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B121">
         <v>3800</v>
@@ -25543,7 +24652,7 @@
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B122">
         <v>3900</v>
@@ -25587,7 +24696,7 @@
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B123">
         <v>4000</v>
@@ -25631,7 +24740,7 @@
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B124">
         <v>4100</v>
@@ -25675,7 +24784,7 @@
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B125">
         <v>100</v>
@@ -25719,7 +24828,7 @@
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B126">
         <v>200</v>
@@ -25763,7 +24872,7 @@
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B127">
         <v>300</v>
@@ -25807,7 +24916,7 @@
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B128">
         <v>400</v>
@@ -25851,7 +24960,7 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B129">
         <v>500</v>
@@ -25895,7 +25004,7 @@
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B130">
         <v>600</v>
@@ -25939,7 +25048,7 @@
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B131">
         <v>700</v>
@@ -25983,7 +25092,7 @@
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B132">
         <v>800</v>
@@ -26027,7 +25136,7 @@
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B133">
         <v>900</v>
@@ -26071,7 +25180,7 @@
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B134">
         <v>1000</v>
@@ -26115,7 +25224,7 @@
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B135">
         <v>1100</v>
@@ -26159,7 +25268,7 @@
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B136">
         <v>1200</v>
@@ -26203,7 +25312,7 @@
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B137">
         <v>1300</v>
@@ -26247,7 +25356,7 @@
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B138">
         <v>1400</v>
@@ -26291,7 +25400,7 @@
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B139">
         <v>1500</v>
@@ -26335,7 +25444,7 @@
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B140">
         <v>1600</v>
@@ -26379,7 +25488,7 @@
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B141">
         <v>1700</v>
@@ -26423,7 +25532,7 @@
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B142">
         <v>1800</v>
@@ -26467,7 +25576,7 @@
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B143">
         <v>1900</v>
@@ -26511,7 +25620,7 @@
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B144">
         <v>2000</v>
@@ -26555,7 +25664,7 @@
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B145">
         <v>2100</v>
@@ -26599,7 +25708,7 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B146">
         <v>2200</v>
@@ -26643,7 +25752,7 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B147">
         <v>2300</v>
@@ -26687,7 +25796,7 @@
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B148">
         <v>2400</v>
@@ -26731,7 +25840,7 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B149">
         <v>2500</v>
@@ -26775,7 +25884,7 @@
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B150">
         <v>2600</v>
@@ -26819,7 +25928,7 @@
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B151">
         <v>2700</v>
@@ -26863,7 +25972,7 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B152">
         <v>2800</v>
@@ -26907,7 +26016,7 @@
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B153">
         <v>2900</v>
@@ -26951,7 +26060,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B154">
         <v>3000</v>
@@ -26995,7 +26104,7 @@
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B155">
         <v>3100</v>
@@ -27039,7 +26148,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B156">
         <v>3200</v>
@@ -27083,7 +26192,7 @@
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B157">
         <v>3300</v>
@@ -27127,7 +26236,7 @@
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B158">
         <v>3400</v>
@@ -27171,7 +26280,7 @@
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B159">
         <v>3500</v>
@@ -27215,7 +26324,7 @@
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B160">
         <v>3600</v>
@@ -27259,7 +26368,7 @@
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B161">
         <v>3700</v>
@@ -27303,7 +26412,7 @@
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B162">
         <v>3800</v>
@@ -27347,7 +26456,7 @@
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B163">
         <v>3900</v>
@@ -27391,7 +26500,7 @@
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B164">
         <v>4000</v>
@@ -27435,7 +26544,7 @@
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B165">
         <v>4100</v>
